--- a/Mapping_Spreadsheets/01_Native_Properties.xlsx
+++ b/Mapping_Spreadsheets/01_Native_Properties.xlsx
@@ -961,7 +961,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -991,7 +990,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1017,7 +1015,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1043,7 +1040,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1069,7 +1065,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1095,7 +1090,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1121,7 +1115,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1147,7 +1140,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1173,7 +1165,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1199,7 +1190,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1250,7 +1240,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1276,7 +1265,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1302,7 +1290,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1328,7 +1315,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1354,7 +1340,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1380,7 +1365,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1406,7 +1390,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1432,7 +1415,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1458,7 +1440,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1484,7 +1465,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1532,7 +1512,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1562,7 +1541,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1588,7 +1566,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1614,7 +1591,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1640,7 +1616,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1666,7 +1641,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1692,7 +1666,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1718,7 +1691,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1744,7 +1716,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1770,7 +1741,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
